--- a/biology/Botanique/Betula_uber/Betula_uber.xlsx
+++ b/biology/Botanique/Betula_uber/Betula_uber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Betula lenta f.uber  Syn. Betula lenta var. uber ou  Betula uber, est l’espèce de bouleau indigène rare des États-Unis. En effet, la seule population connue poussant encore à l’état naturel se trouve dans le sud-ouest de l’État de Virginie.
 C’est un petit arbre à feuillage caduc, à couronne ovale allongée, poussant à une hauteur variant entre 6 et 12 m, avec un tronc étroit unique pouvant également pousser en cépée.  
@@ -516,7 +528,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Considéré comme espèce disparue, après la redécouverte en 1974 de 17 exemplaires de celui-ci le long d’un ruisseau d'une vallée du comté de Smyth en Virginie, il a été aussitôt protégé. 
 Comme espèce en voie de disparition, les graines de ces quelques exemplaires ont été récoltées. Assez vite, ces graines, ainsi que de jeunes plants ont été envoyés dans de nombreux arboretum du monde pour tenter d’enrayer le processus de sa disparition. À ce jour, les résultats obtenus sont plus qu’encourageants.
